--- a/Program/Other/URS會議審查紀錄/DbLayouts/L2-業務作業/FacProdStepRate.xlsx
+++ b/Program/Other/URS會議審查紀錄/DbLayouts/L2-業務作業/FacProdStepRate.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\SKL\DB\GenTables\L2-業務作業\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L2-業務作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5160B921-6A10-4C17-9365-C10357A5B16E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63014C32-A9C9-435C-B0CF-FD2E5FDDC67F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,6 +17,15 @@
     <sheet name="DBS" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -197,8 +206,8 @@
     <t>利率型態</t>
   </si>
   <si>
-    <t xml:space="preserve">1: 固定利率  
-2: 加碼利率
+    <t xml:space="preserve">1:固定利率  
+2:加碼利率
 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -833,7 +842,7 @@
   <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
